--- a/DOM_Banner/output/dept_banner/Ryan Wong_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Ryan Wong_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,346 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Bekir Tanrıöver, Ahmet B. Gungor, Mohanad Al-Obaidi, Bijin Thajudeen, Ryan C. Wong, Iyad Mansour, Tirdad T. Zangeneh, Katherine M. Johnson, Nicole Low, Ruhaniyah Alam, E. M. González, Burhaneddin Sandıkçı, Sangeetha Muruganpandian, Gaurav Gupta, Edward J. Bedrick, Turçin Saridogan, Katherine Mendoza</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5016874418", "https://openalex.org/A5011527972", "https://openalex.org/A5045990380", "https://openalex.org/A5018828648", "https://openalex.org/A5014661126", "https://openalex.org/A5063588934", "https://openalex.org/A5076993071", "https://openalex.org/A5082568455", "https://openalex.org/A5000140694", "https://openalex.org/A5080536354", "https://openalex.org/A5010463505", "https://openalex.org/A5038631687", "https://openalex.org/A5081533811", "https://openalex.org/A5044372095", 
-"https://openalex.org/A5014060810", "https://openalex.org/A5017702104", "https://openalex.org/A5016503578"), au_display_name = c("Bekir Tanrıöver", "Ahmet B. Gungor", "Mohanad Al-Obaidi", "Bijin Thajudeen", "Ryan C. Wong", "Iyad Mansour", "Tirdad T. Zangeneh", "Katherine M. Johnson", "Nicole Low", "Ruhaniyah Alam", "E. M. González", "Burhaneddin Sandıkçı", "Sangeetha Muruganpandian", "Gaurav Gupta", "Edward J. Bedrick", "Turçin Saridogan", "Katherine Mendoza"), au_orcid = c("https://orcid.org/0000-0002-2378-9302", 
-NA, "https://orcid.org/0000-0002-5189-6594", NA, NA, NA, "https://orcid.org/0000-0002-9035-2952", "https://orcid.org/0000-0001-9047-9964", NA, NA, NA, "https://orcid.org/0000-0003-3202-8289", NA, "https://orcid.org/0000-0001-7941-0229", NA, "https://orcid.org/0000-0001-8659-445X", "https://orcid.org/0000-0001-9618-2336"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"last"), au_affiliation_raw = c("Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.", " The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-"Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", " The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-" Istanbul Technical University;", "Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.", "Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.", " The University of Arizona Mel and Enid Zuckerman College of Public Health;", " Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A."
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I48912391", "https://openalex.org/I184840846", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "University of Arizona", "Istanbul Technical University", 
-"Virginia Commonwealth University", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/059636586", 
-"https://ror.org/02nkdxk79", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "TR", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "education", "education", "education", "education", "education", "healthcare", "healthcare", "healthcare", "education", "education", "education", "education", "education", "education", 
-"education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", 
-"https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I48912391", "https://openalex.org/I184840846", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ABSTRACT BACKGROUND Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) can evade neutralizing antibodies, raising concerns about the effectiveness of anti-spike monoclonal antibodies (mAb). METHODS This study reports a retrospective data analysis in Banner Health Care System. Out of 109,788 adult patients who tested positive for COVID-19, the study cohort was split into patients who received Casirivimab-Imdevimab (Cas-Imd) (N=10,836; Delta-predominant period 6/2021-11/2021) and Sotrovimab (N=998; Omicron-predominant period 12/2021-1/2022) mAb compared to propensity-matched control groups (N=10,836 and N=998), respectively. Index date was the date of mAb administration or the date of positive COVID-19 testing. The primary and secondary outcomes were the incidence of composite outcome (all-cause hospitalization and/or mortality) and ICU admission at 30-days following index date, respectively. RESULTS Compared to the propensity-matched untreated control cohort, the Cas-Imd mAb reduced the composite outcome (from 7.5% to 3.7%; difference: -3.8% [95% CI: (-4.4%, -3.2%)], p &amp;lt;0.01) regardless of their vaccination status, while Sotrovimab mAb did not (5.0% vs. 3.8%; difference: -1.2% [95% CI: (-3.1%, 0.7%)], p =0.22). In terms of the secondary outcome, similarly Cas-Imd mAb decreased ICU admission during the first hospitalization (from 1.5% to 0.5%; difference: -1.0% [95% CI: (-1.3%, -0.7%)], p &amp;lt;0.01) compared to the control group, whereas Sotrovimab mAb did not (0.9% vs. 0.6%; difference: -0.3% [95% CI: (-1.2%, 0.6%)], p =0.61). Comparing the periods, the Omicron-predominant period was associated with lower composite outcome than that during the Delta-predominant period. CONCLUSIONS Cas-Imd mAb was effective against the SARS-CoV-2 Delta variant, however sotrovimab lacked efficacy in patients with SARS-CoV-2 Omicron-predominant period. Key Points This retrospective propensity matched analysis showed that treatment with Cas-Imd mAb was effective against the SARS-CoV-2 Delta variant to reduce the all-cause hospitalization and mortality within 30 days, by contrast sotrovimab mAb utilization lacked the efficacy against SARS-CoV-2 Omicron variant.</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400573</t>
+          <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/26/2022.12.23.22283921.full.pdf</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>cc-by-nc</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/26/2022.12.23.22283921.full.pdf</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4312197410</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4312197410", doi = "https://doi.org/10.1101/2022.12.23.22283921")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2022.12.23.22283921</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3008443627", "https://openalex.org/W3111431752", "https://openalex.org/W3198233589", "https://openalex.org/W3214796554", "https://openalex.org/W4200307715", "https://openalex.org/W4200391585", "https://openalex.org/W4207020509", "https://openalex.org/W4211242522", "https://openalex.org/W4220807057", "https://openalex.org/W4220848096", "https://openalex.org/W4220886953", "https://openalex.org/W4220904663", "https://openalex.org/W4220970752", "https://openalex.org/W4223491415", 
-"https://openalex.org/W4224232629", "https://openalex.org/W4226004814", "https://openalex.org/W4226164088", "https://openalex.org/W4226192094", "https://openalex.org/W4280528857", "https://openalex.org/W4282974695")</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3196249313", "https://openalex.org/W3036305013", "https://openalex.org/W4205317059", "https://openalex.org/W2275480158", "https://openalex.org/W2603773853", "https://openalex.org/W3176864053", "https://openalex.org/W3198183218", "https://openalex.org/W4205810683", "https://openalex.org/W4224279380")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Ryan Wong_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Ryan Wong_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  Istanbul Technical University;; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona Mel and Enid Zuckerman College of Public Health;;  Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-12-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
